--- a/REFrameworkTest/reqests.xlsx
+++ b/REFrameworkTest/reqests.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="35">
   <si>
     <t>Id</t>
   </si>
@@ -39,9 +40,6 @@
     <t>Status</t>
   </si>
   <si>
-    <t>Results</t>
-  </si>
-  <si>
     <t>Jessica</t>
   </si>
   <si>
@@ -66,15 +64,9 @@
     <t>RegNr</t>
   </si>
   <si>
-    <t>RegC</t>
-  </si>
-  <si>
     <t>Stuttgart</t>
   </si>
   <si>
-    <t>CD/AD</t>
-  </si>
-  <si>
     <t>Modine Neuenkirchen GmbH</t>
   </si>
   <si>
@@ -103,6 +95,36 @@
   </si>
   <si>
     <t>Hilfswerk-Siedlung Gesellschaft mit beschränkter Haftung Evangelisches Wohnungsunternehmen</t>
+  </si>
+  <si>
+    <t>Laura Bockelmann</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Success: Single Result </t>
+  </si>
+  <si>
+    <t>Expected Status</t>
+  </si>
+  <si>
+    <t>AD</t>
+  </si>
+  <si>
+    <t>CD</t>
+  </si>
+  <si>
+    <t>success: Multiple Result</t>
+  </si>
+  <si>
+    <t>RegCourt</t>
+  </si>
+  <si>
+    <t>all</t>
+  </si>
+  <si>
+    <t>alle</t>
+  </si>
+  <si>
+    <t>success: Single Result</t>
   </si>
 </sst>
 </file>
@@ -423,7 +445,7 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -431,6 +453,8 @@
     <col min="2" max="2" width="21.140625" customWidth="1"/>
     <col min="3" max="3" width="21.85546875" customWidth="1"/>
     <col min="4" max="4" width="54.7109375" customWidth="1"/>
+    <col min="8" max="8" width="32" customWidth="1"/>
+    <col min="9" max="9" width="25.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -447,10 +471,10 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F1" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
@@ -459,180 +483,620 @@
         <v>5</v>
       </c>
       <c r="I1" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="E2">
+        <v>7845</v>
+      </c>
+      <c r="F2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>12</v>
+      </c>
+      <c r="E3">
+        <v>223750</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>15</v>
+      </c>
+      <c r="E4">
+        <v>4292</v>
+      </c>
+      <c r="F4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E5">
-        <v>7845</v>
+        <v>352792</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E6">
-        <v>223750</v>
+        <v>2263</v>
       </c>
       <c r="F6" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G6" t="s">
-        <v>17</v>
+        <v>29</v>
+      </c>
+      <c r="H6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D7" t="s">
         <v>18</v>
       </c>
       <c r="E7">
-        <v>4292</v>
+        <v>224236</v>
       </c>
       <c r="F7" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="G7" t="s">
-        <v>17</v>
+        <v>29</v>
+      </c>
+      <c r="H7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
         <v>24</v>
       </c>
-      <c r="D8" t="s">
-        <v>19</v>
-      </c>
       <c r="E8">
-        <v>352792</v>
+        <v>5011</v>
       </c>
       <c r="F8" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G8" t="s">
-        <v>17</v>
+        <v>28</v>
+      </c>
+      <c r="H8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E9">
-        <v>2263</v>
+        <v>25009</v>
       </c>
       <c r="F9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G9" t="s">
-        <v>17</v>
+        <v>28</v>
+      </c>
+      <c r="H9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I9" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" t="s">
+        <v>26</v>
+      </c>
+      <c r="I10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" t="s">
+        <v>33</v>
+      </c>
+      <c r="G11" t="s">
+        <v>28</v>
+      </c>
+      <c r="H11" t="s">
+        <v>26</v>
+      </c>
+      <c r="I11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>3</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" t="s">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10">
-        <v>224236</v>
-      </c>
-      <c r="F10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D11" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11">
-        <v>5011</v>
-      </c>
-      <c r="F11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12">
-        <v>25009</v>
-      </c>
       <c r="F12" t="s">
-        <v>25</v>
+        <v>33</v>
+      </c>
+      <c r="G12" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12" t="s">
+        <v>30</v>
+      </c>
+      <c r="I12" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.140625" customWidth="1"/>
+    <col min="2" max="2" width="21.85546875" customWidth="1"/>
+    <col min="3" max="3" width="23" customWidth="1"/>
+    <col min="4" max="4" width="42.7109375" customWidth="1"/>
+    <col min="5" max="5" width="24.7109375" customWidth="1"/>
+    <col min="6" max="6" width="23.28515625" customWidth="1"/>
+    <col min="7" max="7" width="16.5703125" customWidth="1"/>
+    <col min="8" max="8" width="41.7109375" customWidth="1"/>
+    <col min="9" max="9" width="37" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2">
+        <v>7845</v>
+      </c>
+      <c r="F2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3">
+        <v>223750</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4">
+        <v>4292</v>
+      </c>
+      <c r="F4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5">
+        <v>352792</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6">
+        <v>2263</v>
+      </c>
+      <c r="F6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7">
+        <v>224236</v>
+      </c>
+      <c r="F7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8">
+        <v>5011</v>
+      </c>
+      <c r="F8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>25009</v>
+      </c>
+      <c r="F9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" t="s">
+        <v>30</v>
+      </c>
+      <c r="I9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" t="s">
+        <v>30</v>
+      </c>
+      <c r="I10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" t="s">
+        <v>28</v>
+      </c>
+      <c r="H11" t="s">
+        <v>26</v>
+      </c>
+      <c r="I11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>3</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12" t="s">
+        <v>30</v>
+      </c>
+      <c r="I12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/REFrameworkTest/reqests.xlsx
+++ b/REFrameworkTest/reqests.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="36">
   <si>
     <t>Id</t>
   </si>
@@ -125,16 +126,27 @@
   </si>
   <si>
     <t>success: Single Result</t>
+  </si>
+  <si>
+    <t>boogh313@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -157,13 +169,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -444,8 +459,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D20" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -493,6 +508,9 @@
       <c r="B2" t="s">
         <v>11</v>
       </c>
+      <c r="C2" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="D2" t="s">
         <v>10</v>
       </c>
@@ -519,6 +537,9 @@
       <c r="B3" t="s">
         <v>21</v>
       </c>
+      <c r="C3" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="D3" t="s">
         <v>12</v>
       </c>
@@ -545,6 +566,9 @@
       <c r="B4" t="s">
         <v>21</v>
       </c>
+      <c r="C4" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="D4" t="s">
         <v>15</v>
       </c>
@@ -571,6 +595,9 @@
       <c r="B5" t="s">
         <v>21</v>
       </c>
+      <c r="C5" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="D5" t="s">
         <v>16</v>
       </c>
@@ -597,6 +624,9 @@
       <c r="B6" t="s">
         <v>21</v>
       </c>
+      <c r="C6" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="D6" t="s">
         <v>17</v>
       </c>
@@ -623,6 +653,9 @@
       <c r="B7" t="s">
         <v>21</v>
       </c>
+      <c r="C7" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="D7" t="s">
         <v>18</v>
       </c>
@@ -649,6 +682,9 @@
       <c r="B8" t="s">
         <v>25</v>
       </c>
+      <c r="C8" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="D8" t="s">
         <v>24</v>
       </c>
@@ -675,6 +711,9 @@
       <c r="B9" t="s">
         <v>25</v>
       </c>
+      <c r="C9" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="D9" t="s">
         <v>23</v>
       </c>
@@ -701,6 +740,9 @@
       <c r="B10" t="s">
         <v>6</v>
       </c>
+      <c r="C10" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="D10" t="s">
         <v>7</v>
       </c>
@@ -724,6 +766,9 @@
       <c r="B11" t="s">
         <v>6</v>
       </c>
+      <c r="C11" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="D11" t="s">
         <v>8</v>
       </c>
@@ -747,6 +792,9 @@
       <c r="B12" t="s">
         <v>6</v>
       </c>
+      <c r="C12" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="D12" t="s">
         <v>9</v>
       </c>
@@ -764,12 +812,155 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C3:C12" r:id="rId2" display="boogh313@gmail.com"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="21.140625" customWidth="1"/>
+    <col min="3" max="3" width="21.85546875" customWidth="1"/>
+    <col min="4" max="4" width="54.7109375" customWidth="1"/>
+    <col min="8" max="8" width="32" customWidth="1"/>
+    <col min="9" max="9" width="25.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2">
+        <v>7845</v>
+      </c>
+      <c r="F2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3">
+        <v>5011</v>
+      </c>
+      <c r="F3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C3:C4" r:id="rId2" display="boogh313@gmail.com"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I12"/>
   <sheetViews>

--- a/REFrameworkTest/reqests.xlsx
+++ b/REFrameworkTest/reqests.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="11820"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="52">
   <si>
     <t>Id</t>
   </si>
@@ -129,6 +129,54 @@
   </si>
   <si>
     <t>boogh313@gmail.com</t>
+  </si>
+  <si>
+    <t>creation_date</t>
+  </si>
+  <si>
+    <t>regStatus</t>
+  </si>
+  <si>
+    <t>currently registered</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wed May 16 2018 13:15:36 GMT+0200 </t>
+  </si>
+  <si>
+    <t>Wed May 16 2018 13:15:36 GMT+0201</t>
+  </si>
+  <si>
+    <t>Wed May 16 2018 13:15:36 GMT+0202</t>
+  </si>
+  <si>
+    <t>Wed May 16 2018 13:15:36 GMT+0203</t>
+  </si>
+  <si>
+    <t>Wed May 16 2018 13:15:36 GMT+0204</t>
+  </si>
+  <si>
+    <t>Wed May 16 2018 13:15:36 GMT+0205</t>
+  </si>
+  <si>
+    <t>Wed May 16 2018 13:15:36 GMT+0206</t>
+  </si>
+  <si>
+    <t>Wed May 16 2018 13:15:36 GMT+0207</t>
+  </si>
+  <si>
+    <t>Wed May 16 2018 13:15:36 GMT+0208</t>
+  </si>
+  <si>
+    <t>Wed May 16 2018 13:15:36 GMT+0209</t>
+  </si>
+  <si>
+    <t>Wed May 16 2018 13:15:36 GMT+0210</t>
+  </si>
+  <si>
+    <t>current</t>
+  </si>
+  <si>
+    <t>chronological</t>
   </si>
 </sst>
 </file>
@@ -457,10 +505,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4:G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -468,11 +516,14 @@
     <col min="2" max="2" width="21.140625" customWidth="1"/>
     <col min="3" max="3" width="21.85546875" customWidth="1"/>
     <col min="4" max="4" width="54.7109375" customWidth="1"/>
+    <col min="7" max="7" width="24.7109375" customWidth="1"/>
     <col min="8" max="8" width="32" customWidth="1"/>
     <col min="9" max="9" width="25.5703125" customWidth="1"/>
+    <col min="10" max="10" width="40" customWidth="1"/>
+    <col min="11" max="12" width="21.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -500,8 +551,14 @@
       <c r="I1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>4</v>
       </c>
@@ -521,7 +578,7 @@
         <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="H2" t="s">
         <v>26</v>
@@ -529,8 +586,14 @@
       <c r="I2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>5</v>
       </c>
@@ -550,7 +613,7 @@
         <v>14</v>
       </c>
       <c r="G3" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="H3" t="s">
         <v>26</v>
@@ -558,8 +621,14 @@
       <c r="I3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>6</v>
       </c>
@@ -579,7 +648,7 @@
         <v>19</v>
       </c>
       <c r="G4" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="H4" t="s">
         <v>26</v>
@@ -587,8 +656,14 @@
       <c r="I4" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J4" t="s">
+        <v>41</v>
+      </c>
+      <c r="K4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>7</v>
       </c>
@@ -608,7 +683,7 @@
         <v>14</v>
       </c>
       <c r="G5" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="H5" t="s">
         <v>26</v>
@@ -616,8 +691,14 @@
       <c r="I5" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J5" t="s">
+        <v>42</v>
+      </c>
+      <c r="K5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>8</v>
       </c>
@@ -637,7 +718,7 @@
         <v>20</v>
       </c>
       <c r="G6" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="H6" t="s">
         <v>26</v>
@@ -645,8 +726,14 @@
       <c r="I6" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J6" t="s">
+        <v>43</v>
+      </c>
+      <c r="K6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>9</v>
       </c>
@@ -666,7 +753,7 @@
         <v>14</v>
       </c>
       <c r="G7" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="H7" t="s">
         <v>26</v>
@@ -674,8 +761,14 @@
       <c r="I7" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J7" t="s">
+        <v>44</v>
+      </c>
+      <c r="K7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>10</v>
       </c>
@@ -695,7 +788,7 @@
         <v>22</v>
       </c>
       <c r="G8" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="H8" t="s">
         <v>26</v>
@@ -703,8 +796,14 @@
       <c r="I8" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J8" t="s">
+        <v>45</v>
+      </c>
+      <c r="K8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>11</v>
       </c>
@@ -732,8 +831,14 @@
       <c r="I9" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J9" t="s">
+        <v>46</v>
+      </c>
+      <c r="K9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
@@ -758,8 +863,14 @@
       <c r="I10" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J10" t="s">
+        <v>47</v>
+      </c>
+      <c r="K10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2</v>
       </c>
@@ -784,8 +895,14 @@
       <c r="I11" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J11" t="s">
+        <v>48</v>
+      </c>
+      <c r="K11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>3</v>
       </c>
@@ -809,6 +926,12 @@
       </c>
       <c r="I12" t="s">
         <v>30</v>
+      </c>
+      <c r="J12" t="s">
+        <v>49</v>
+      </c>
+      <c r="K12" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -825,7 +948,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
